--- a/media/reports/oto_monofaz.xlsx
+++ b/media/reports/oto_monofaz.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rapor Sayfası" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,8 +19,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -556,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -652,25 +652,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -700,37 +718,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1323,17 +1320,17 @@
           <t>Trafo Tipi :</t>
         </is>
       </c>
-      <c r="B1" s="44" t="inlineStr">
+      <c r="B1" s="55" t="inlineStr">
         <is>
           <t xml:space="preserve"> Oto Trafosu Trifaz Hesap Ozeti</t>
         </is>
       </c>
-      <c r="C1" s="46" t="n"/>
-      <c r="D1" s="46" t="n"/>
-      <c r="E1" s="46" t="n"/>
-      <c r="F1" s="46" t="n"/>
-      <c r="G1" s="46" t="n"/>
-      <c r="H1" s="46" t="n"/>
+      <c r="C1" s="49" t="n"/>
+      <c r="D1" s="49" t="n"/>
+      <c r="E1" s="49" t="n"/>
+      <c r="F1" s="49" t="n"/>
+      <c r="G1" s="49" t="n"/>
+      <c r="H1" s="49" t="n"/>
       <c r="I1" s="11" t="n"/>
       <c r="J1" s="6" t="inlineStr">
         <is>
@@ -1343,31 +1340,31 @@
       <c r="K1" s="27" t="n"/>
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
-      <c r="N1" s="70" t="n">
-        <v>44319.61911451766</v>
-      </c>
-      <c r="O1" s="48" t="n"/>
+      <c r="N1" s="57" t="n">
+        <v>44321.48284019478</v>
+      </c>
+      <c r="O1" s="50" t="n"/>
     </row>
     <row r="2" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A2" s="52" t="inlineStr">
+      <c r="A2" s="58" t="inlineStr">
         <is>
           <t>Değerler</t>
         </is>
       </c>
-      <c r="B2" s="46" t="n"/>
-      <c r="C2" s="46" t="n"/>
-      <c r="D2" s="46" t="n"/>
-      <c r="E2" s="46" t="n"/>
-      <c r="F2" s="46" t="n"/>
-      <c r="G2" s="46" t="n"/>
-      <c r="H2" s="46" t="n"/>
-      <c r="I2" s="46" t="n"/>
-      <c r="J2" s="46" t="n"/>
-      <c r="K2" s="46" t="n"/>
-      <c r="L2" s="46" t="n"/>
-      <c r="M2" s="46" t="n"/>
-      <c r="N2" s="46" t="n"/>
-      <c r="O2" s="48" t="n"/>
+      <c r="B2" s="49" t="n"/>
+      <c r="C2" s="49" t="n"/>
+      <c r="D2" s="49" t="n"/>
+      <c r="E2" s="49" t="n"/>
+      <c r="F2" s="49" t="n"/>
+      <c r="G2" s="49" t="n"/>
+      <c r="H2" s="49" t="n"/>
+      <c r="I2" s="49" t="n"/>
+      <c r="J2" s="49" t="n"/>
+      <c r="K2" s="49" t="n"/>
+      <c r="L2" s="49" t="n"/>
+      <c r="M2" s="49" t="n"/>
+      <c r="N2" s="49" t="n"/>
+      <c r="O2" s="50" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -1375,40 +1372,40 @@
           <t>Güç :</t>
         </is>
       </c>
-      <c r="B3" s="71" t="inlineStr">
-        <is>
-          <t>1000.0 VA</t>
+      <c r="B3" s="52" t="inlineStr">
+        <is>
+          <t>500.0 VA</t>
         </is>
       </c>
       <c r="C3" s="72" t="n"/>
       <c r="D3" s="72" t="n"/>
       <c r="E3" s="72" t="n"/>
-      <c r="F3" s="51" t="n"/>
+      <c r="F3" s="54" t="n"/>
       <c r="G3" s="9" t="inlineStr">
         <is>
           <t>Primer Agirlik(Al) :</t>
         </is>
       </c>
-      <c r="H3" s="73" t="inlineStr">
-        <is>
-          <t>1.271 kg</t>
-        </is>
-      </c>
-      <c r="I3" s="51" t="n"/>
-      <c r="J3" s="74" t="inlineStr">
+      <c r="H3" s="53" t="inlineStr">
+        <is>
+          <t>0.0 kg</t>
+        </is>
+      </c>
+      <c r="I3" s="54" t="n"/>
+      <c r="J3" s="73" t="inlineStr">
         <is>
           <t xml:space="preserve">Karkas Ölçüleri : </t>
         </is>
       </c>
-      <c r="K3" s="54" t="n"/>
-      <c r="L3" s="75" t="inlineStr">
-        <is>
-          <t>50.0 x 50.0 x 68.0</t>
-        </is>
-      </c>
-      <c r="M3" s="53" t="n"/>
-      <c r="N3" s="53" t="n"/>
-      <c r="O3" s="54" t="n"/>
+      <c r="K3" s="60" t="n"/>
+      <c r="L3" s="74" t="inlineStr">
+        <is>
+          <t>32.0 x 50.0 x 48.0</t>
+        </is>
+      </c>
+      <c r="M3" s="59" t="n"/>
+      <c r="N3" s="59" t="n"/>
+      <c r="O3" s="60" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -1416,7 +1413,7 @@
           <t>Sac kk :</t>
         </is>
       </c>
-      <c r="B4" s="71" t="inlineStr">
+      <c r="B4" s="52" t="inlineStr">
         <is>
           <t>7.0</t>
         </is>
@@ -1424,26 +1421,30 @@
       <c r="C4" s="72" t="n"/>
       <c r="D4" s="72" t="n"/>
       <c r="E4" s="72" t="n"/>
-      <c r="F4" s="51" t="n"/>
+      <c r="F4" s="54" t="n"/>
       <c r="G4" s="9" t="inlineStr">
         <is>
           <t>Sekonder Agirlik(Al):</t>
         </is>
       </c>
-      <c r="H4" s="73" t="inlineStr"/>
-      <c r="I4" s="51" t="n"/>
-      <c r="J4" s="76" t="inlineStr">
+      <c r="H4" s="53" t="inlineStr">
+        <is>
+          <t>14.429 kg</t>
+        </is>
+      </c>
+      <c r="I4" s="54" t="n"/>
+      <c r="J4" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Trafo Ölçüleri : </t>
         </is>
       </c>
-      <c r="K4" s="77" t="n"/>
-      <c r="L4" s="78" t="inlineStr">
-        <is>
-          <t>150.0 x 100.0 x 125.0</t>
-        </is>
-      </c>
-      <c r="O4" s="77" t="n"/>
+      <c r="K4" s="76" t="n"/>
+      <c r="L4" s="77" t="inlineStr">
+        <is>
+          <t>96.0 x 82.0 x 80.0</t>
+        </is>
+      </c>
+      <c r="O4" s="76" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -1451,7 +1452,7 @@
           <t>Sac ©</t>
         </is>
       </c>
-      <c r="B5" s="71" t="inlineStr">
+      <c r="B5" s="52" t="inlineStr">
         <is>
           <t>0.5 mm</t>
         </is>
@@ -1459,30 +1460,30 @@
       <c r="C5" s="72" t="n"/>
       <c r="D5" s="72" t="n"/>
       <c r="E5" s="72" t="n"/>
-      <c r="F5" s="51" t="n"/>
+      <c r="F5" s="54" t="n"/>
       <c r="G5" s="9" t="inlineStr">
         <is>
           <t>Primer Agirlik(Cu) :</t>
         </is>
       </c>
-      <c r="H5" s="73" t="inlineStr">
-        <is>
-          <t>0.804 kg</t>
-        </is>
-      </c>
-      <c r="I5" s="51" t="n"/>
-      <c r="J5" s="76" t="inlineStr">
+      <c r="H5" s="53" t="inlineStr">
+        <is>
+          <t>0.304 kg</t>
+        </is>
+      </c>
+      <c r="I5" s="54" t="n"/>
+      <c r="J5" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Klemens &amp; Ayak : </t>
         </is>
       </c>
-      <c r="K5" s="77" t="n"/>
-      <c r="L5" s="78" t="inlineStr">
+      <c r="K5" s="76" t="n"/>
+      <c r="L5" s="77" t="inlineStr">
         <is>
           <t>TRV4M / 25.0 / 18.0 - 84 Kose</t>
         </is>
       </c>
-      <c r="O5" s="77" t="n"/>
+      <c r="O5" s="76" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -1490,34 +1491,38 @@
           <t>Gauss :</t>
         </is>
       </c>
-      <c r="B6" s="71" t="inlineStr">
-        <is>
-          <t>11500.0</t>
+      <c r="B6" s="52" t="inlineStr">
+        <is>
+          <t>11000.0</t>
         </is>
       </c>
       <c r="C6" s="72" t="n"/>
       <c r="D6" s="72" t="n"/>
       <c r="E6" s="72" t="n"/>
-      <c r="F6" s="51" t="n"/>
+      <c r="F6" s="54" t="n"/>
       <c r="G6" s="9" t="inlineStr">
         <is>
           <t>Sekonder Agirlik(Cu) :</t>
         </is>
       </c>
-      <c r="H6" s="73" t="inlineStr"/>
-      <c r="I6" s="51" t="n"/>
-      <c r="J6" s="76" t="inlineStr">
+      <c r="H6" s="53" t="inlineStr">
+        <is>
+          <t>0.0 kg</t>
+        </is>
+      </c>
+      <c r="I6" s="54" t="n"/>
+      <c r="J6" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Sac Agirlik : </t>
         </is>
       </c>
-      <c r="K6" s="77" t="n"/>
-      <c r="L6" s="78" t="inlineStr">
-        <is>
-          <t>5.755 kg (Hazır Sac)</t>
-        </is>
-      </c>
-      <c r="O6" s="77" t="n"/>
+      <c r="K6" s="76" t="n"/>
+      <c r="L6" s="77" t="inlineStr">
+        <is>
+          <t>2.357 kg(EI Sac)</t>
+        </is>
+      </c>
+      <c r="O6" s="76" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="4" t="inlineStr">
@@ -1525,7 +1530,7 @@
           <t>Frekans :</t>
         </is>
       </c>
-      <c r="B7" s="71" t="inlineStr">
+      <c r="B7" s="52" t="inlineStr">
         <is>
           <t>50.0 Hz</t>
         </is>
@@ -1533,20 +1538,20 @@
       <c r="C7" s="72" t="n"/>
       <c r="D7" s="72" t="n"/>
       <c r="E7" s="72" t="n"/>
-      <c r="F7" s="51" t="n"/>
+      <c r="F7" s="54" t="n"/>
       <c r="G7" s="10" t="inlineStr">
         <is>
           <t>Toplam Agirlik :</t>
         </is>
       </c>
-      <c r="H7" s="73" t="inlineStr">
-        <is>
-          <t>Al:1.271 //  Cu:0.804kg</t>
-        </is>
-      </c>
-      <c r="I7" s="51" t="n"/>
-      <c r="J7" s="79" t="n"/>
-      <c r="K7" s="80" t="n"/>
+      <c r="H7" s="53" t="inlineStr">
+        <is>
+          <t>Al:0.0 //  Cu:0.304kg</t>
+        </is>
+      </c>
+      <c r="I7" s="54" t="n"/>
+      <c r="J7" s="78" t="n"/>
+      <c r="K7" s="79" t="n"/>
       <c r="L7" s="32" t="n"/>
       <c r="M7" s="31" t="n"/>
       <c r="N7" s="31" t="n"/>
@@ -1556,41 +1561,41 @@
       <c r="A8" s="1" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="67" t="inlineStr">
+      <c r="A9" s="48" t="inlineStr">
         <is>
           <t>Primer</t>
         </is>
       </c>
-      <c r="B9" s="46" t="n"/>
-      <c r="C9" s="46" t="n"/>
-      <c r="D9" s="46" t="n"/>
-      <c r="E9" s="46" t="n"/>
-      <c r="F9" s="46" t="n"/>
-      <c r="G9" s="48" t="n"/>
-      <c r="I9" s="68" t="inlineStr">
+      <c r="B9" s="49" t="n"/>
+      <c r="C9" s="49" t="n"/>
+      <c r="D9" s="49" t="n"/>
+      <c r="E9" s="49" t="n"/>
+      <c r="F9" s="49" t="n"/>
+      <c r="G9" s="50" t="n"/>
+      <c r="I9" s="51" t="inlineStr">
         <is>
           <t>Sekonder</t>
         </is>
       </c>
-      <c r="J9" s="46" t="n"/>
-      <c r="K9" s="46" t="n"/>
-      <c r="L9" s="46" t="n"/>
-      <c r="M9" s="46" t="n"/>
-      <c r="N9" s="46" t="n"/>
-      <c r="O9" s="48" t="n"/>
+      <c r="J9" s="49" t="n"/>
+      <c r="K9" s="49" t="n"/>
+      <c r="L9" s="49" t="n"/>
+      <c r="M9" s="49" t="n"/>
+      <c r="N9" s="49" t="n"/>
+      <c r="O9" s="50" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>330.0 V ( 330.6395V )</t>
+          <t>220.0 V ( 220.1676V )</t>
         </is>
       </c>
       <c r="I10" s="1" t="n"/>
       <c r="O10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="81" t="inlineStr">
+      <c r="A11" s="80" t="inlineStr">
         <is>
           <t>4 NOLU KADEME:</t>
         </is>
@@ -1601,7 +1606,7 @@
       <c r="M11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="82" t="inlineStr">
+      <c r="A12" s="81" t="inlineStr">
         <is>
           <t>Tel :</t>
         </is>
@@ -1621,13 +1626,13 @@
       <c r="M12" s="22" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="82" t="inlineStr">
+      <c r="A13" s="81" t="inlineStr">
         <is>
           <t>Cap :</t>
         </is>
       </c>
       <c r="B13" s="26" t="n">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="C13" s="21" t="n"/>
       <c r="D13" s="21" t="n"/>
@@ -1639,13 +1644,13 @@
       <c r="M13" s="21" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="82" t="inlineStr">
+      <c r="A14" s="81" t="inlineStr">
         <is>
           <t>Kesit :</t>
         </is>
       </c>
       <c r="B14" s="26" t="n">
-        <v>2.544690049407733</v>
+        <v>0.4417864669110647</v>
       </c>
       <c r="C14" s="21" t="n"/>
       <c r="D14" s="21" t="n"/>
@@ -1659,13 +1664,13 @@
       <c r="O14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="82" t="inlineStr">
+      <c r="A15" s="81" t="inlineStr">
         <is>
           <t>Akim :</t>
         </is>
       </c>
       <c r="B15" s="26" t="n">
-        <v>7.634070148223199</v>
+        <v>1.325359400733194</v>
       </c>
       <c r="C15" s="21" t="n"/>
       <c r="D15" s="21" t="n"/>
@@ -1679,7 +1684,7 @@
       <c r="O15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="82" t="inlineStr">
+      <c r="A16" s="81" t="inlineStr">
         <is>
           <t>Kat :</t>
         </is>
@@ -1697,13 +1702,13 @@
       <c r="M16" s="21" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="82" t="inlineStr">
+      <c r="A17" s="81" t="inlineStr">
         <is>
           <t>Uzunluk :</t>
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>36.304564</v>
+        <v>22.023184</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
@@ -1715,8 +1720,8 @@
       <c r="M17" s="21" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="83" t="inlineStr"/>
-      <c r="C18" s="82" t="inlineStr">
+      <c r="B18" s="82" t="inlineStr"/>
+      <c r="C18" s="81" t="inlineStr">
         <is>
           <t>-- Teller --</t>
         </is>
@@ -1731,20 +1736,20 @@
       <c r="O18" s="2" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="82" t="inlineStr">
+      <c r="A19" s="81" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="B19" s="84" t="n">
-        <v>1.8</v>
+      <c r="B19" s="83" t="n">
+        <v>0.75</v>
       </c>
       <c r="C19" s="24" t="n"/>
       <c r="D19" s="24" t="n"/>
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>517 sp</t>
+          <t>563 sp</t>
         </is>
       </c>
       <c r="I19" s="23" t="n"/>
@@ -1755,13 +1760,13 @@
       <c r="O19" s="17" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="82" t="inlineStr">
+      <c r="A20" s="81" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="B20" s="84" t="n">
-        <v>0.8037396060023099</v>
+      <c r="B20" s="83" t="n">
+        <v>0.08464703845058291</v>
       </c>
       <c r="C20" s="26" t="n"/>
       <c r="D20" s="26" t="n"/>
@@ -1773,7 +1778,7 @@
       <c r="M20" s="26" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="82" t="inlineStr">
+      <c r="A21" s="81" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
         </is>
@@ -1789,7 +1794,7 @@
       <c r="M21" s="24" t="n"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="82" t="inlineStr">
+      <c r="A22" s="81" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
@@ -1805,7 +1810,7 @@
       <c r="M22" s="26" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="82" t="inlineStr">
+      <c r="A23" s="81" t="inlineStr">
         <is>
           <t>Folyo :</t>
         </is>
@@ -1821,7 +1826,7 @@
       <c r="M23" s="24" t="n"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="82" t="inlineStr">
+      <c r="A24" s="81" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
         </is>
@@ -1837,7 +1842,7 @@
       <c r="M24" s="26" t="n"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="82" t="inlineStr">
+      <c r="A25" s="81" t="inlineStr">
         <is>
           <t>Kapton :</t>
         </is>
@@ -1848,7 +1853,7 @@
       <c r="E25" s="24" t="n"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>280.0 V ( 280.7558V )</t>
+          <t>180.0 V ( 180.2793V )</t>
         </is>
       </c>
       <c r="I25" s="23" t="n"/>
@@ -1859,421 +1864,421 @@
       <c r="O25" s="2" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="81" t="inlineStr">
+      <c r="A26" s="80" t="inlineStr">
         <is>
           <t>3 NOLU KADEME:</t>
         </is>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="82" t="inlineStr">
+      <c r="A27" s="81" t="inlineStr">
         <is>
           <t>Tel :</t>
         </is>
       </c>
-      <c r="B27" s="83" t="inlineStr">
-        <is>
-          <t>Al</t>
+      <c r="B27" s="82" t="inlineStr">
+        <is>
+          <t>Cu</t>
         </is>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="82" t="inlineStr">
+      <c r="A28" s="81" t="inlineStr">
         <is>
           <t>Cap :</t>
         </is>
       </c>
-      <c r="B28" s="83" t="n">
-        <v>2.4</v>
+      <c r="B28" s="82" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="82" t="inlineStr">
+      <c r="A29" s="81" t="inlineStr">
         <is>
           <t>Kesit :</t>
         </is>
       </c>
-      <c r="B29" s="83" t="n">
-        <v>4.523893421169302</v>
+      <c r="B29" s="82" t="n">
+        <v>0.2827433388230814</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="82" t="inlineStr">
+      <c r="A30" s="81" t="inlineStr">
         <is>
           <t>Akim :</t>
         </is>
       </c>
-      <c r="B30" s="83" t="n">
-        <v>7.238229473870884</v>
+      <c r="B30" s="82" t="n">
+        <v>0.8482300164692442</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="82" t="inlineStr">
+      <c r="A31" s="81" t="inlineStr">
         <is>
           <t>Kat :</t>
         </is>
       </c>
-      <c r="B31" s="83" t="n">
-        <v>3</v>
+      <c r="B31" s="82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="82" t="inlineStr">
+      <c r="A32" s="81" t="inlineStr">
         <is>
           <t>Uzunluk :</t>
         </is>
       </c>
-      <c r="B32" s="83" t="n">
-        <v>38.96213200000001</v>
+      <c r="B32" s="82" t="n">
+        <v>10.655912</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" thickBot="1">
-      <c r="B33" s="83" t="inlineStr"/>
-      <c r="C33" s="82" t="inlineStr">
+      <c r="B33" s="82" t="inlineStr"/>
+      <c r="C33" s="81" t="inlineStr">
         <is>
           <t>-- Teller --</t>
         </is>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="82" t="inlineStr">
+      <c r="A34" s="81" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="B34" s="84" t="n">
-        <v>2.4</v>
+      <c r="B34" s="83" t="n">
+        <v>0.6</v>
       </c>
       <c r="G34" s="17" t="inlineStr">
         <is>
-          <t>439 sp</t>
+          <t>461 sp</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="82" t="inlineStr">
+      <c r="A35" s="81" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="B35" s="84" t="n">
-        <v>0.475903438099731</v>
+      <c r="B35" s="83" t="n">
+        <v>0.02621212679263897</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="82" t="inlineStr">
+      <c r="A36" s="81" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="82" t="inlineStr">
+      <c r="A37" s="81" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="82" t="inlineStr">
+      <c r="A38" s="81" t="inlineStr">
         <is>
           <t>Folyo :</t>
         </is>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="82" t="inlineStr">
+      <c r="A39" s="81" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
         </is>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="82" t="inlineStr">
+      <c r="A40" s="81" t="inlineStr">
         <is>
           <t>Kapton :</t>
         </is>
       </c>
       <c r="G40" s="17" t="inlineStr">
         <is>
-          <t>220.0 V ( 220.6395V )</t>
+          <t>160.0 V ( 160.3352V )</t>
         </is>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="81" t="inlineStr">
+      <c r="A41" s="80" t="inlineStr">
         <is>
           <t>2 NOLU KADEME:</t>
         </is>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="82" t="inlineStr">
+      <c r="A42" s="81" t="inlineStr">
         <is>
           <t>Tel :</t>
         </is>
       </c>
-      <c r="B42" s="83" t="inlineStr">
-        <is>
-          <t>Al</t>
+      <c r="B42" s="82" t="inlineStr">
+        <is>
+          <t>Cu</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="82" t="inlineStr">
+      <c r="A43" s="81" t="inlineStr">
         <is>
           <t>Cap :</t>
         </is>
       </c>
-      <c r="B43" s="83" t="n">
-        <v>1.9</v>
+      <c r="B43" s="82" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="82" t="inlineStr">
+      <c r="A44" s="81" t="inlineStr">
         <is>
           <t>Kesit :</t>
         </is>
       </c>
-      <c r="B44" s="83" t="n">
-        <v>2.835287369864788</v>
+      <c r="B44" s="82" t="n">
+        <v>0.2827433388230814</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="82" t="inlineStr">
+      <c r="A45" s="81" t="inlineStr">
         <is>
           <t>Akim :</t>
         </is>
       </c>
-      <c r="B45" s="83" t="n">
-        <v>4.536459791783662</v>
+      <c r="B45" s="82" t="n">
+        <v>0.8482300164692442</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="82" t="inlineStr">
+      <c r="A46" s="81" t="inlineStr">
         <is>
           <t>Kat :</t>
         </is>
       </c>
-      <c r="B46" s="83" t="n">
+      <c r="B46" s="82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="81" t="inlineStr">
+        <is>
+          <t>Uzunluk :</t>
+        </is>
+      </c>
+      <c r="B47" s="82" t="n">
+        <v>10.697664</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="82" t="inlineStr"/>
+      <c r="C48" s="81" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="81" t="inlineStr">
+        <is>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="B49" s="83" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G49" s="17" t="inlineStr">
+        <is>
+          <t>410 sp</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="81" t="inlineStr">
+        <is>
+          <t>Ytel Agr :</t>
+        </is>
+      </c>
+      <c r="B50" s="83" t="n">
+        <v>0.02631483116161707</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="81" t="inlineStr">
+        <is>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="81" t="inlineStr">
+        <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="81" t="inlineStr">
+        <is>
+          <t>Folyo :</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="81" t="inlineStr">
+        <is>
+          <t>Folyo Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="81" t="inlineStr">
+        <is>
+          <t>Kapton :</t>
+        </is>
+      </c>
+      <c r="G55" s="17" t="inlineStr">
+        <is>
+          <t>140.0 V ( 140.0V )</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="80" t="inlineStr">
+        <is>
+          <t>1 NOLU KADEME:</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="81" t="inlineStr">
+        <is>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="B57" s="82" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="81" t="inlineStr">
+        <is>
+          <t>Cap :</t>
+        </is>
+      </c>
+      <c r="B58" s="82" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="81" t="inlineStr">
+        <is>
+          <t>Kesit :</t>
+        </is>
+      </c>
+      <c r="B59" s="82" t="n">
+        <v>0.2827433388230814</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="81" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="B60" s="82" t="n">
+        <v>0.8482300164692442</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="81" t="inlineStr">
+        <is>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="B61" s="82" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="82" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="81" t="inlineStr">
         <is>
           <t>Uzunluk :</t>
         </is>
       </c>
-      <c r="B47" s="83" t="n">
-        <v>59.055542</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="83" t="inlineStr"/>
-      <c r="C48" s="82" t="inlineStr">
+      <c r="B62" s="82" t="n">
+        <v>68.013136</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="82" t="inlineStr"/>
+      <c r="C63" s="81" t="inlineStr">
         <is>
           <t>-- Teller --</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="82" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="81" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="B49" s="84" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G49" s="17" t="inlineStr">
-        <is>
-          <t>345 sp</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="82" t="inlineStr">
+      <c r="B64" s="83" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G64" s="17" t="inlineStr">
+        <is>
+          <t>358 sp</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="81" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="B50" s="84" t="n">
-        <v>0.4520864673534227</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="82" t="inlineStr">
+      <c r="B65" s="83" t="n">
+        <v>0.1673032720612743</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="81" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="82" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="81" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="82" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="81" t="inlineStr">
         <is>
           <t>Folyo :</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="82" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="81" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
-      <c r="G55" s="17" t="inlineStr">
-        <is>
-          <t>110.0 V ( 110.0V )</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="81" t="inlineStr">
-        <is>
-          <t>1 NOLU KADEME:</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="82" t="inlineStr">
-        <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="B57" s="83" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="82" t="inlineStr">
-        <is>
-          <t>Cap :</t>
-        </is>
-      </c>
-      <c r="B58" s="83" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="B59" s="83" t="n">
-        <v>2.835287369864788</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="82" t="inlineStr">
-        <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="B60" s="83" t="n">
-        <v>4.536459791783662</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="82" t="inlineStr">
-        <is>
-          <t>Kat :</t>
-        </is>
-      </c>
-      <c r="B61" s="83" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="82" t="inlineStr">
-        <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
-      <c r="B62" s="83" t="n">
-        <v>44.793328</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="83" t="inlineStr"/>
-      <c r="C63" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="B64" s="84" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G64" s="17" t="inlineStr">
-        <is>
-          <t>172 sp</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
-        </is>
-      </c>
-      <c r="B65" s="84" t="n">
-        <v>0.3429052842580491</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
-    </row>
     <row r="70">
-      <c r="A70" s="82" t="inlineStr">
+      <c r="A70" s="81" t="inlineStr">
         <is>
           <t>Kapton :</t>
         </is>
@@ -2300,14 +2305,14 @@
       <c r="G79" s="15" t="n"/>
     </row>
     <row r="80">
-      <c r="B80" s="85" t="inlineStr">
+      <c r="B80" s="84" t="inlineStr">
         <is>
           <t>Primer Kademe</t>
         </is>
       </c>
-      <c r="C80" s="46" t="n"/>
-      <c r="D80" s="46" t="n"/>
-      <c r="E80" s="48" t="n"/>
+      <c r="C80" s="49" t="n"/>
+      <c r="D80" s="49" t="n"/>
+      <c r="E80" s="50" t="n"/>
       <c r="F80" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
@@ -2320,12 +2325,12 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="86" t="n">
+      <c r="B81" s="85" t="n">
         <v>0.19</v>
       </c>
-      <c r="C81" s="46" t="n"/>
-      <c r="D81" s="46" t="n"/>
-      <c r="E81" s="87" t="n"/>
+      <c r="C81" s="49" t="n"/>
+      <c r="D81" s="49" t="n"/>
+      <c r="E81" s="86" t="n"/>
       <c r="F81" s="18" t="n">
         <v>1</v>
       </c>
@@ -2336,14 +2341,14 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" s="85" t="inlineStr">
+      <c r="B82" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve">VA Kademe </t>
         </is>
       </c>
-      <c r="C82" s="46" t="n"/>
-      <c r="D82" s="46" t="n"/>
-      <c r="E82" s="48" t="n"/>
+      <c r="C82" s="49" t="n"/>
+      <c r="D82" s="49" t="n"/>
+      <c r="E82" s="50" t="n"/>
       <c r="F82" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
@@ -2356,14 +2361,14 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="86" t="inlineStr">
+      <c r="B83" s="85" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C83" s="46" t="n"/>
-      <c r="D83" s="46" t="n"/>
-      <c r="E83" s="87" t="n"/>
+      <c r="C83" s="49" t="n"/>
+      <c r="D83" s="49" t="n"/>
+      <c r="E83" s="86" t="n"/>
       <c r="F83" s="18" t="inlineStr">
         <is>
           <t>Yok</t>
@@ -2376,14 +2381,14 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" s="85" t="inlineStr">
+      <c r="B84" s="84" t="inlineStr">
         <is>
           <t>Primer-Sekonder</t>
         </is>
       </c>
-      <c r="C84" s="46" t="n"/>
-      <c r="D84" s="46" t="n"/>
-      <c r="E84" s="48" t="n"/>
+      <c r="C84" s="49" t="n"/>
+      <c r="D84" s="49" t="n"/>
+      <c r="E84" s="50" t="n"/>
       <c r="F84" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
@@ -2392,14 +2397,14 @@
       <c r="G84" s="8" t="n"/>
     </row>
     <row r="85">
-      <c r="B85" s="86" t="inlineStr">
+      <c r="B85" s="85" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C85" s="46" t="n"/>
-      <c r="D85" s="46" t="n"/>
-      <c r="E85" s="87" t="n"/>
+      <c r="C85" s="49" t="n"/>
+      <c r="D85" s="49" t="n"/>
+      <c r="E85" s="86" t="n"/>
       <c r="F85" s="20" t="inlineStr">
         <is>
           <t>Yok</t>
@@ -2454,7 +2459,7 @@
     <row r="88">
       <c r="B88" s="28" t="inlineStr">
         <is>
-          <t>150.0 mm</t>
+          <t>96.0 mm</t>
         </is>
       </c>
       <c r="C88" s="29" t="inlineStr">
@@ -2464,7 +2469,7 @@
       </c>
       <c r="D88" s="29" t="inlineStr">
         <is>
-          <t>143.0 mm</t>
+          <t>98.0 mm</t>
         </is>
       </c>
       <c r="E88" s="29" t="inlineStr"/>
@@ -2518,27 +2523,27 @@
     <row r="91">
       <c r="B91" s="28" t="inlineStr">
         <is>
-          <t>150.0 mm</t>
+          <t>96.0 mm</t>
         </is>
       </c>
       <c r="C91" s="29" t="inlineStr">
         <is>
-          <t>100.0 mm</t>
+          <t>82.0 mm</t>
         </is>
       </c>
       <c r="D91" s="29" t="inlineStr">
         <is>
-          <t>125.0 mm</t>
+          <t>80.0 mm</t>
         </is>
       </c>
       <c r="E91" s="29" t="inlineStr">
         <is>
-          <t>125.0 mm</t>
+          <t>80.0 mm</t>
         </is>
       </c>
       <c r="F91" s="29" t="inlineStr">
         <is>
-          <t>77.0 mm</t>
+          <t>68.0 mm</t>
         </is>
       </c>
       <c r="G91" s="30" t="inlineStr">
@@ -2549,14 +2554,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:I7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="B3:F3"/>
@@ -2573,6 +2570,14 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="B80:E80"/>
     <mergeCell ref="B81:E81"/>
     <mergeCell ref="B82:E82"/>
@@ -2600,15 +2605,15 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" activeCellId="1" sqref="D1:D1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="4.44140625" customWidth="1" min="1" max="1"/>
-    <col width="18.33203125" customWidth="1" min="2" max="2"/>
-    <col width="9.77734375" customWidth="1" min="3" max="3"/>
-    <col width="10.88671875" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="19.33203125" customWidth="1" style="25" min="3" max="3"/>
+    <col width="19.77734375" customWidth="1" style="25" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2618,10 +2623,10 @@
           <t>Malzeme Listesi</t>
         </is>
       </c>
-      <c r="C1" s="88" t="n"/>
-      <c r="D1" s="88" t="n"/>
-      <c r="E1" s="88" t="n"/>
-      <c r="F1" s="89" t="n"/>
+      <c r="C1" s="87" t="n"/>
+      <c r="D1" s="87" t="n"/>
+      <c r="E1" s="87" t="n"/>
+      <c r="F1" s="88" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="42" t="n"/>
@@ -2630,12 +2635,12 @@
           <t>Urun Kodu</t>
         </is>
       </c>
-      <c r="C2" s="43" t="inlineStr">
+      <c r="C2" s="70" t="inlineStr">
         <is>
           <t>Cap/Kesit</t>
         </is>
       </c>
-      <c r="D2" s="43" t="inlineStr">
+      <c r="D2" s="70" t="inlineStr">
         <is>
           <t>Agirlik</t>
         </is>
@@ -2649,16 +2654,16 @@
       </c>
       <c r="B3" s="42" t="inlineStr">
         <is>
-          <t>H010011X90AET</t>
-        </is>
-      </c>
-      <c r="C3" s="42" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
-      </c>
-      <c r="D3" s="42" t="n">
-        <v>0.3429052842580491</v>
+          <t>H010010X60AET</t>
+        </is>
+      </c>
+      <c r="C3" s="71" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="D3" s="71" t="n">
+        <v>0.2198302300155304</v>
       </c>
       <c r="E3" s="42" t="n"/>
       <c r="F3" s="42" t="n"/>
@@ -2669,16 +2674,16 @@
       </c>
       <c r="B4" s="42" t="inlineStr">
         <is>
-          <t>H010101X90EBT</t>
-        </is>
-      </c>
-      <c r="C4" s="42" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
-      </c>
-      <c r="D4" s="42" t="n">
-        <v>0.4520864673534227</v>
+          <t>H010010X75AET</t>
+        </is>
+      </c>
+      <c r="C4" s="71" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="D4" s="71" t="n">
+        <v>0.08464703845058291</v>
       </c>
       <c r="E4" s="42" t="n"/>
       <c r="F4" s="42" t="n"/>
@@ -2689,17 +2694,15 @@
       </c>
       <c r="B5" s="42" t="inlineStr">
         <is>
-          <t>H010012X40AET</t>
-        </is>
-      </c>
-      <c r="C5" s="42" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="D5" s="42" t="n">
-        <v>0.475903438099731</v>
-      </c>
+          <t>H0201001200TD</t>
+        </is>
+      </c>
+      <c r="C5" s="71" t="inlineStr">
+        <is>
+          <t>32.0 x 50.0 x 48.0</t>
+        </is>
+      </c>
+      <c r="D5" s="71" t="n"/>
       <c r="E5" s="42" t="n"/>
       <c r="F5" s="42" t="n"/>
     </row>
@@ -2709,16 +2712,18 @@
       </c>
       <c r="B6" s="42" t="inlineStr">
         <is>
-          <t>H010011X80AET</t>
-        </is>
-      </c>
-      <c r="C6" s="42" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-      <c r="D6" s="42" t="n">
-        <v>0.8037396060023099</v>
+          <t>EI Sac</t>
+        </is>
+      </c>
+      <c r="C6" s="71" t="inlineStr">
+        <is>
+          <t>0.5 mm</t>
+        </is>
+      </c>
+      <c r="D6" s="71" t="inlineStr">
+        <is>
+          <t>2.357 kg</t>
+        </is>
       </c>
       <c r="E6" s="42" t="n"/>
       <c r="F6" s="42" t="n"/>
@@ -2728,8 +2733,8 @@
         <v>5</v>
       </c>
       <c r="B7" s="42" t="n"/>
-      <c r="C7" s="42" t="n"/>
-      <c r="D7" s="42" t="n"/>
+      <c r="C7" s="71" t="n"/>
+      <c r="D7" s="71" t="n"/>
       <c r="E7" s="42" t="n"/>
       <c r="F7" s="42" t="n"/>
     </row>
@@ -2738,8 +2743,8 @@
         <v>6</v>
       </c>
       <c r="B8" s="42" t="n"/>
-      <c r="C8" s="42" t="n"/>
-      <c r="D8" s="42" t="n"/>
+      <c r="C8" s="71" t="n"/>
+      <c r="D8" s="71" t="n"/>
       <c r="E8" s="42" t="n"/>
       <c r="F8" s="42" t="n"/>
     </row>
@@ -2748,8 +2753,8 @@
         <v>7</v>
       </c>
       <c r="B9" s="42" t="n"/>
-      <c r="C9" s="42" t="n"/>
-      <c r="D9" s="42" t="n"/>
+      <c r="C9" s="71" t="n"/>
+      <c r="D9" s="71" t="n"/>
       <c r="E9" s="42" t="n"/>
       <c r="F9" s="42" t="n"/>
     </row>
@@ -2758,8 +2763,8 @@
         <v>8</v>
       </c>
       <c r="B10" s="42" t="n"/>
-      <c r="C10" s="42" t="n"/>
-      <c r="D10" s="42" t="n"/>
+      <c r="C10" s="71" t="n"/>
+      <c r="D10" s="71" t="n"/>
       <c r="E10" s="42" t="n"/>
       <c r="F10" s="42" t="n"/>
     </row>
@@ -2768,8 +2773,8 @@
         <v>9</v>
       </c>
       <c r="B11" s="42" t="n"/>
-      <c r="C11" s="42" t="n"/>
-      <c r="D11" s="42" t="n"/>
+      <c r="C11" s="71" t="n"/>
+      <c r="D11" s="71" t="n"/>
       <c r="E11" s="42" t="n"/>
       <c r="F11" s="42" t="n"/>
     </row>
@@ -2778,8 +2783,8 @@
         <v>10</v>
       </c>
       <c r="B12" s="42" t="n"/>
-      <c r="C12" s="42" t="n"/>
-      <c r="D12" s="42" t="n"/>
+      <c r="C12" s="71" t="n"/>
+      <c r="D12" s="71" t="n"/>
       <c r="E12" s="42" t="n"/>
       <c r="F12" s="42" t="n"/>
     </row>
@@ -2788,8 +2793,8 @@
         <v>11</v>
       </c>
       <c r="B13" s="42" t="n"/>
-      <c r="C13" s="42" t="n"/>
-      <c r="D13" s="42" t="n"/>
+      <c r="C13" s="71" t="n"/>
+      <c r="D13" s="71" t="n"/>
       <c r="E13" s="42" t="n"/>
       <c r="F13" s="42" t="n"/>
     </row>
@@ -2798,8 +2803,8 @@
         <v>12</v>
       </c>
       <c r="B14" s="42" t="n"/>
-      <c r="C14" s="42" t="n"/>
-      <c r="D14" s="42" t="n"/>
+      <c r="C14" s="71" t="n"/>
+      <c r="D14" s="71" t="n"/>
       <c r="E14" s="42" t="n"/>
       <c r="F14" s="42" t="n"/>
     </row>
@@ -2808,8 +2813,8 @@
         <v>13</v>
       </c>
       <c r="B15" s="42" t="n"/>
-      <c r="C15" s="42" t="n"/>
-      <c r="D15" s="42" t="n"/>
+      <c r="C15" s="71" t="n"/>
+      <c r="D15" s="71" t="n"/>
       <c r="E15" s="42" t="n"/>
       <c r="F15" s="42" t="n"/>
     </row>
@@ -2818,8 +2823,8 @@
         <v>14</v>
       </c>
       <c r="B16" s="42" t="n"/>
-      <c r="C16" s="42" t="n"/>
-      <c r="D16" s="42" t="n"/>
+      <c r="C16" s="71" t="n"/>
+      <c r="D16" s="71" t="n"/>
       <c r="E16" s="42" t="n"/>
       <c r="F16" s="42" t="n"/>
     </row>
@@ -2828,8 +2833,8 @@
         <v>15</v>
       </c>
       <c r="B17" s="42" t="n"/>
-      <c r="C17" s="42" t="n"/>
-      <c r="D17" s="42" t="n"/>
+      <c r="C17" s="71" t="n"/>
+      <c r="D17" s="71" t="n"/>
       <c r="E17" s="42" t="n"/>
       <c r="F17" s="42" t="n"/>
     </row>
@@ -2838,8 +2843,8 @@
         <v>16</v>
       </c>
       <c r="B18" s="42" t="n"/>
-      <c r="C18" s="42" t="n"/>
-      <c r="D18" s="42" t="n"/>
+      <c r="C18" s="71" t="n"/>
+      <c r="D18" s="71" t="n"/>
       <c r="E18" s="42" t="n"/>
       <c r="F18" s="42" t="n"/>
     </row>
@@ -2848,8 +2853,8 @@
         <v>17</v>
       </c>
       <c r="B19" s="42" t="n"/>
-      <c r="C19" s="42" t="n"/>
-      <c r="D19" s="42" t="n"/>
+      <c r="C19" s="71" t="n"/>
+      <c r="D19" s="71" t="n"/>
       <c r="E19" s="42" t="n"/>
       <c r="F19" s="42" t="n"/>
     </row>
@@ -2858,8 +2863,8 @@
         <v>18</v>
       </c>
       <c r="B20" s="42" t="n"/>
-      <c r="C20" s="42" t="n"/>
-      <c r="D20" s="42" t="n"/>
+      <c r="C20" s="71" t="n"/>
+      <c r="D20" s="71" t="n"/>
       <c r="E20" s="42" t="n"/>
       <c r="F20" s="42" t="n"/>
     </row>
@@ -2868,8 +2873,8 @@
         <v>19</v>
       </c>
       <c r="B21" s="42" t="n"/>
-      <c r="C21" s="42" t="n"/>
-      <c r="D21" s="42" t="n"/>
+      <c r="C21" s="71" t="n"/>
+      <c r="D21" s="71" t="n"/>
       <c r="E21" s="42" t="n"/>
       <c r="F21" s="42" t="n"/>
     </row>
@@ -2878,8 +2883,8 @@
         <v>20</v>
       </c>
       <c r="B22" s="42" t="n"/>
-      <c r="C22" s="42" t="n"/>
-      <c r="D22" s="42" t="n"/>
+      <c r="C22" s="71" t="n"/>
+      <c r="D22" s="71" t="n"/>
       <c r="E22" s="42" t="n"/>
       <c r="F22" s="42" t="n"/>
     </row>
@@ -2888,8 +2893,8 @@
         <v>21</v>
       </c>
       <c r="B23" s="42" t="n"/>
-      <c r="C23" s="42" t="n"/>
-      <c r="D23" s="42" t="n"/>
+      <c r="C23" s="71" t="n"/>
+      <c r="D23" s="71" t="n"/>
       <c r="E23" s="42" t="n"/>
       <c r="F23" s="42" t="n"/>
     </row>
@@ -2898,8 +2903,8 @@
         <v>22</v>
       </c>
       <c r="B24" s="42" t="n"/>
-      <c r="C24" s="42" t="n"/>
-      <c r="D24" s="42" t="n"/>
+      <c r="C24" s="71" t="n"/>
+      <c r="D24" s="71" t="n"/>
       <c r="E24" s="42" t="n"/>
       <c r="F24" s="42" t="n"/>
     </row>
@@ -2908,8 +2913,8 @@
         <v>23</v>
       </c>
       <c r="B25" s="42" t="n"/>
-      <c r="C25" s="42" t="n"/>
-      <c r="D25" s="42" t="n"/>
+      <c r="C25" s="71" t="n"/>
+      <c r="D25" s="71" t="n"/>
       <c r="E25" s="42" t="n"/>
       <c r="F25" s="42" t="n"/>
     </row>
@@ -2918,8 +2923,8 @@
         <v>24</v>
       </c>
       <c r="B26" s="42" t="n"/>
-      <c r="C26" s="42" t="n"/>
-      <c r="D26" s="42" t="n"/>
+      <c r="C26" s="71" t="n"/>
+      <c r="D26" s="71" t="n"/>
       <c r="E26" s="42" t="n"/>
       <c r="F26" s="42" t="n"/>
     </row>
@@ -2928,8 +2933,8 @@
         <v>25</v>
       </c>
       <c r="B27" s="42" t="n"/>
-      <c r="C27" s="42" t="n"/>
-      <c r="D27" s="42" t="n"/>
+      <c r="C27" s="71" t="n"/>
+      <c r="D27" s="71" t="n"/>
       <c r="E27" s="42" t="n"/>
       <c r="F27" s="42" t="n"/>
     </row>
@@ -2938,8 +2943,8 @@
         <v>26</v>
       </c>
       <c r="B28" s="42" t="n"/>
-      <c r="C28" s="42" t="n"/>
-      <c r="D28" s="42" t="n"/>
+      <c r="C28" s="71" t="n"/>
+      <c r="D28" s="71" t="n"/>
       <c r="E28" s="42" t="n"/>
       <c r="F28" s="42" t="n"/>
     </row>
@@ -2948,8 +2953,8 @@
         <v>27</v>
       </c>
       <c r="B29" s="42" t="n"/>
-      <c r="C29" s="42" t="n"/>
-      <c r="D29" s="42" t="n"/>
+      <c r="C29" s="71" t="n"/>
+      <c r="D29" s="71" t="n"/>
       <c r="E29" s="42" t="n"/>
       <c r="F29" s="42" t="n"/>
     </row>
@@ -2958,8 +2963,8 @@
         <v>28</v>
       </c>
       <c r="B30" s="42" t="n"/>
-      <c r="C30" s="42" t="n"/>
-      <c r="D30" s="42" t="n"/>
+      <c r="C30" s="71" t="n"/>
+      <c r="D30" s="71" t="n"/>
       <c r="E30" s="42" t="n"/>
       <c r="F30" s="42" t="n"/>
     </row>
@@ -2968,8 +2973,8 @@
         <v>29</v>
       </c>
       <c r="B31" s="42" t="n"/>
-      <c r="C31" s="42" t="n"/>
-      <c r="D31" s="42" t="n"/>
+      <c r="C31" s="71" t="n"/>
+      <c r="D31" s="71" t="n"/>
       <c r="E31" s="42" t="n"/>
       <c r="F31" s="42" t="n"/>
     </row>
@@ -2978,8 +2983,8 @@
         <v>30</v>
       </c>
       <c r="B32" s="42" t="n"/>
-      <c r="C32" s="42" t="n"/>
-      <c r="D32" s="42" t="n"/>
+      <c r="C32" s="71" t="n"/>
+      <c r="D32" s="71" t="n"/>
       <c r="E32" s="42" t="n"/>
       <c r="F32" s="42" t="n"/>
     </row>
@@ -2988,5 +2993,6 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="256" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/media/reports/oto_monofaz.xlsx
+++ b/media/reports/oto_monofaz.xlsx
@@ -959,31 +959,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="752475" cy="809625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1341,7 +1316,7 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="57" t="n">
-        <v>44321.48284019478</v>
+        <v>44322.46586296707</v>
       </c>
       <c r="O1" s="50" t="n"/>
     </row>
@@ -1427,11 +1402,7 @@
           <t>Sekonder Agirlik(Al):</t>
         </is>
       </c>
-      <c r="H4" s="53" t="inlineStr">
-        <is>
-          <t>14.429 kg</t>
-        </is>
-      </c>
+      <c r="H4" s="53" t="inlineStr"/>
       <c r="I4" s="54" t="n"/>
       <c r="J4" s="75" t="inlineStr">
         <is>
@@ -1505,11 +1476,7 @@
           <t>Sekonder Agirlik(Cu) :</t>
         </is>
       </c>
-      <c r="H6" s="53" t="inlineStr">
-        <is>
-          <t>0.0 kg</t>
-        </is>
-      </c>
+      <c r="H6" s="53" t="inlineStr"/>
       <c r="I6" s="54" t="n"/>
       <c r="J6" s="75" t="inlineStr">
         <is>
